--- a/EscherUdpMessages.xlsx
+++ b/EscherUdpMessages.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>start</t>
   </si>
@@ -161,9 +161,6 @@
     <t>calibration</t>
   </si>
   <si>
-    <t>calib. N. (1=black, 2=white)</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
@@ -234,6 +231,12 @@
   </si>
   <si>
     <t>Confirmation Request</t>
+  </si>
+  <si>
+    <t>calibrationok</t>
+  </si>
+  <si>
+    <t>calib. N. (b=black, w=white)</t>
   </si>
 </sst>
 </file>
@@ -551,15 +554,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.21875" bestFit="1" customWidth="1"/>
@@ -617,10 +620,10 @@
         <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -637,7 +640,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -684,10 +687,10 @@
         <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -731,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -739,25 +742,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -765,25 +753,25 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -791,46 +779,25 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -838,10 +805,57 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>68</v>
+      <c r="C12" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
